--- a/SelNewFramework/TestSuite&Testcases/TestSuite1.xlsx
+++ b/SelNewFramework/TestSuite&Testcases/TestSuite1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>TCID</t>
   </si>
@@ -95,27 +95,12 @@
     <t>launchingWorldAppTest</t>
   </si>
   <si>
-    <t>selectState</t>
-  </si>
-  <si>
     <t>selectDropDownByIndex</t>
   </si>
   <si>
     <t>Next</t>
   </si>
   <si>
-    <t>Select state</t>
-  </si>
-  <si>
-    <t>click next</t>
-  </si>
-  <si>
-    <t>selectLookingfor</t>
-  </si>
-  <si>
-    <t>Select looking</t>
-  </si>
-  <si>
     <t>Wait for</t>
   </si>
   <si>
@@ -128,12 +113,6 @@
     <t>WorldpayForm test</t>
   </si>
   <si>
-    <t>startBuilding</t>
-  </si>
-  <si>
-    <t>Click on startBuilding</t>
-  </si>
-  <si>
     <t>imNotSure</t>
   </si>
   <si>
@@ -161,7 +140,121 @@
     <t xml:space="preserve">Next </t>
   </si>
   <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>InputText</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>surName</t>
+  </si>
+  <si>
+    <t>jobTitle</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
     <t>TS07</t>
+  </si>
+  <si>
+    <t>TS08</t>
+  </si>
+  <si>
+    <t>Enter first</t>
+  </si>
+  <si>
+    <t>Enter surname</t>
+  </si>
+  <si>
+    <t>Enter jobtitle</t>
+  </si>
+  <si>
+    <t>Enter emailadddress</t>
+  </si>
+  <si>
+    <t>Enter company</t>
+  </si>
+  <si>
+    <t>phoneNum</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>InfoSend</t>
+  </si>
+  <si>
+    <t>annualRevenue</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>select industry</t>
+  </si>
+  <si>
+    <t>select Region</t>
+  </si>
+  <si>
+    <t>Select revenue</t>
+  </si>
+  <si>
+    <t>Click info</t>
+  </si>
+  <si>
+    <t>TS09</t>
+  </si>
+  <si>
+    <t>TS10</t>
+  </si>
+  <si>
+    <t>TS11</t>
+  </si>
+  <si>
+    <t>TS12</t>
+  </si>
+  <si>
+    <t>TS13</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Enter comment</t>
+  </si>
+  <si>
+    <t>TS14</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Phnnumber</t>
   </si>
 </sst>
 </file>
@@ -540,7 +633,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,13 +670,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +684,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
@@ -651,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -662,16 +752,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,16 +766,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,16 +786,19 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -713,26 +806,163 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -746,7 +976,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,13 +1027,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -812,19 +1042,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,13 +1062,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -847,13 +1077,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -862,13 +1092,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3"/>
     </row>

--- a/SelNewFramework/TestSuite&Testcases/TestSuite1.xlsx
+++ b/SelNewFramework/TestSuite&Testcases/TestSuite1.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21720" windowHeight="13620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21720" windowHeight="13620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="launchingWorldApp" sheetId="2" r:id="rId2"/>
-    <sheet name="WorldpayForm" sheetId="3" r:id="rId3"/>
+    <sheet name="WorldpayLaunch" sheetId="2" r:id="rId2"/>
+    <sheet name="WorldPayForm" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>TCID</t>
   </si>
@@ -77,9 +77,6 @@
     <t>TS05</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>waitFor</t>
   </si>
   <si>
@@ -89,57 +86,15 @@
     <t>URL</t>
   </si>
   <si>
-    <t>launchingWorldApp</t>
-  </si>
-  <si>
     <t>launchingWorldAppTest</t>
   </si>
   <si>
     <t>selectDropDownByIndex</t>
   </si>
   <si>
-    <t>Next</t>
-  </si>
-  <si>
     <t>Wait for</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>WorldpayForm</t>
-  </si>
-  <si>
-    <t>WorldpayForm test</t>
-  </si>
-  <si>
-    <t>imNotSure</t>
-  </si>
-  <si>
-    <t>ClickimNotSure</t>
-  </si>
-  <si>
-    <t>Click Next</t>
-  </si>
-  <si>
-    <t>selectIndustry</t>
-  </si>
-  <si>
-    <t>Select industry</t>
-  </si>
-  <si>
-    <t>selectSpecility</t>
-  </si>
-  <si>
-    <t>Select specility</t>
-  </si>
-  <si>
-    <t>NextTwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next </t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -255,6 +210,27 @@
   </si>
   <si>
     <t>Phnnumber</t>
+  </si>
+  <si>
+    <t>btnsubmmit</t>
+  </si>
+  <si>
+    <t>click button submit</t>
+  </si>
+  <si>
+    <t>WorldpayLaunch</t>
+  </si>
+  <si>
+    <t>WorldPayForm</t>
+  </si>
+  <si>
+    <t>Fill the world pay form</t>
+  </si>
+  <si>
+    <t>TS15</t>
+  </si>
+  <si>
+    <t>btnsubmmit1</t>
   </si>
 </sst>
 </file>
@@ -319,11 +295,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -633,7 +608,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,26 +618,26 @@
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -670,10 +645,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -684,10 +662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,23 +677,23 @@
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -733,237 +711,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -973,38 +721,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1013,42 +761,38 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1062,45 +806,213 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
